--- a/tests/test_news.xlsx
+++ b/tests/test_news.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
   <si>
     <t>title</t>
   </si>
@@ -29,6 +38,36 @@
   </si>
   <si>
     <t>article_url</t>
+  </si>
+  <si>
+    <t>네이버</t>
+  </si>
+  <si>
+    <t>다음</t>
+  </si>
+  <si>
+    <t>대통령실</t>
+  </si>
+  <si>
+    <t>금융</t>
+  </si>
+  <si>
+    <t>부동산</t>
+  </si>
+  <si>
+    <t>게임</t>
+  </si>
+  <si>
+    <t>연합뉴스</t>
+  </si>
+  <si>
+    <t>이데일리</t>
+  </si>
+  <si>
+    <t>JTBC</t>
+  </si>
+  <si>
+    <t>한국경제</t>
   </si>
   <si>
     <t>제목1</t>
@@ -459,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,93 +520,138 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
